--- a/cars.xlsx
+++ b/cars.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6750" yWindow="2925" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4170" yWindow="4650" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -445,10 +445,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Zmarli</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,157 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Wydarzenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wydarzenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nie znaleziono/Błąd</t>
         </is>
       </c>
     </row>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1,40 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66479e91d25faa2a/Pulpit/VS_Code/Net_bot_VIN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_32B9E18EDA2F6B158F1D33950DB40C7F5C093B0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C23423-44DA-4C1B-B644-58237ABA2F0E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4170" yWindow="4650" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Kategoria</t>
+  </si>
+  <si>
+    <t>Typ pojazdu</t>
+  </si>
+  <si>
+    <t>Rodzaj zabudowy</t>
+  </si>
+  <si>
+    <t>Data wysyłki</t>
+  </si>
+  <si>
+    <t>W1KWJ8DB0PG119286</t>
+  </si>
+  <si>
+    <t>Osobowe (0)</t>
+  </si>
+  <si>
+    <t>Coupé</t>
+  </si>
+  <si>
+    <t>C 300</t>
+  </si>
+  <si>
+    <t>W1K2060471F032562</t>
+  </si>
+  <si>
+    <t>Limuzyna</t>
+  </si>
+  <si>
+    <t>C 300 4MATIC</t>
+  </si>
+  <si>
+    <t>WDD2163941A028186</t>
+  </si>
+  <si>
+    <t>CL 500 4MATIC BlueEFFICIENCY</t>
+  </si>
+  <si>
+    <t>WDD2210801A167100</t>
+  </si>
+  <si>
+    <t>S 320 CDI 4MATIC</t>
+  </si>
+  <si>
+    <t>WDB2304751F040399</t>
+  </si>
+  <si>
+    <t>Roadster</t>
+  </si>
+  <si>
+    <t>SL 500</t>
+  </si>
+  <si>
+    <t>WDDGJ7HB2FG362282</t>
+  </si>
+  <si>
+    <t>C 63 AMG</t>
+  </si>
+  <si>
+    <t>WDB2110041A471731</t>
+  </si>
+  <si>
+    <t>E 200 CDI</t>
+  </si>
+  <si>
+    <t>WDF63960313443665</t>
+  </si>
+  <si>
+    <t>Dostawcze-Vitoria (5)</t>
+  </si>
+  <si>
+    <t>111MIX/L4X2   3200</t>
+  </si>
+  <si>
+    <t>WDC2049841G409958</t>
+  </si>
+  <si>
+    <t>GLK 220 CDI 4MATIC</t>
+  </si>
+  <si>
+    <t>Off-Roader</t>
+  </si>
+  <si>
+    <t>18.02.2015</t>
+  </si>
+  <si>
+    <t>WDB2037461A911688</t>
+  </si>
+  <si>
+    <t>WDC2049841F398039</t>
+  </si>
+  <si>
+    <t>WDB2010291F674907</t>
+  </si>
+  <si>
+    <t>WDB9066331S408171</t>
+  </si>
+  <si>
+    <t>WDD1183031N037707</t>
+  </si>
+  <si>
+    <t>WDC2923641A061233</t>
+  </si>
+  <si>
+    <t>WDD2122941A796988</t>
+  </si>
+  <si>
+    <t>WDB2110761A838335</t>
+  </si>
+  <si>
+    <t>WDD2050401R297931</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,85 +218,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -440,283 +633,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="E19" sqref="B2:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>VIN</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Zmarli</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I2" s="6">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Wydarzenia</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I3" s="9">
+        <v>44511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="10">
+        <v>40675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9">
+        <v>39288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I6" s="10">
+        <v>37627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="9">
+        <v>41848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10">
+        <v>37959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Nie znaleziono/Błąd</t>
-        </is>
-      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9">
+        <v>39581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
